--- a/tbx/nowcastingoutputData/Example1_DFM_loop_b1.xlsx
+++ b/tbx/nowcastingoutputData/Example1_DFM_loop_b1.xlsx
@@ -170,61 +170,61 @@
     <t>groups</t>
   </si>
   <si>
-    <t>1   2   6   8   9  10</t>
-  </si>
-  <si>
-    <t>1   3   4   6   9  10  11  12</t>
-  </si>
-  <si>
-    <t>2   5   6   7   8  10  11</t>
-  </si>
-  <si>
-    <t>1   2   5   6   7   9  10  11  12</t>
-  </si>
-  <si>
-    <t>1   2   3   4   5   6   7   8   9  12</t>
-  </si>
-  <si>
-    <t>1   2   3   5   8  10  12</t>
-  </si>
-  <si>
-    <t>1   2   3   6   7   9  10  11  12</t>
-  </si>
-  <si>
-    <t>1  2  3  7  8</t>
-  </si>
-  <si>
-    <t>2   3   4   6   8   9  10  11  12</t>
-  </si>
-  <si>
-    <t>1   2   4   5   7   8   9  10  11  12</t>
-  </si>
-  <si>
-    <t>2  2  3  3  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  3  1  1  1  1</t>
-  </si>
-  <si>
-    <t>2  3  3  3  3  1  1</t>
-  </si>
-  <si>
-    <t>2  2  3  3  3  1  1  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  2  3  3  3  3  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  3  3  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  3  3  1  1  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  3  3</t>
-  </si>
-  <si>
-    <t>2  2  2  3  3  3  1  1  1  1</t>
+    <t>1   4   5   7   9  10  11  12</t>
+  </si>
+  <si>
+    <t>2   4   6   7   9  10  11</t>
+  </si>
+  <si>
+    <t>1   2   3   5   6   7   8   9  10  11</t>
+  </si>
+  <si>
+    <t>3   4   5   6   8   9  10  11</t>
+  </si>
+  <si>
+    <t>1   2   3   4   6   7   8  10  11  12</t>
+  </si>
+  <si>
+    <t>1   3   4   5   6   8   9  11  12</t>
+  </si>
+  <si>
+    <t>1   3   4   6   7   8  11  12</t>
+  </si>
+  <si>
+    <t>1   3   4   5   6   8   9  11</t>
+  </si>
+  <si>
+    <t>1   2   5   6   7   8  11  12</t>
+  </si>
+  <si>
+    <t>1  3  5  6  9</t>
+  </si>
+  <si>
+    <t>2  2  3  3  1  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  3  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  2  3  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  1  1</t>
+  </si>
+  <si>
+    <t>2  2  3  3  3  3  1  1</t>
+  </si>
+  <si>
+    <t>2  2  3  3  1</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
     <col min="46" max="46" width="2.4609375" customWidth="true"/>
     <col min="47" max="47" width="2.4609375" customWidth="true"/>
     <col min="48" max="48" width="2.4609375" customWidth="true"/>
-    <col min="49" max="49" width="24.4609375" customWidth="true"/>
+    <col min="49" max="49" width="25.53515625" customWidth="true"/>
     <col min="50" max="50" width="19.765625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -491,39 +491,39 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>4.8702118652878825</v>
+        <v>3.5508094742603196</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0">
-        <v>9.7750588714368245</v>
+        <v>7.1643467856610803</v>
       </c>
       <c r="L2" s="0">
-        <v>1.0173090065006021</v>
+        <v>0.61725235269094592</v>
       </c>
       <c r="M2" s="0">
-        <v>1.0173090065006021</v>
+        <v>0.61725235269094592</v>
       </c>
       <c r="N2" s="0">
-        <v>0.88</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="0">
         <v>0.89473684210526316</v>
@@ -532,24 +532,24 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S2" s="0">
-        <v>8.1170197754798039</v>
+        <v>5.9180157904338655</v>
       </c>
       <c r="T2" s="0"/>
       <c r="U2" s="0">
-        <v>16.930898612305469</v>
+        <v>12.409012635807764</v>
       </c>
       <c r="V2" s="0">
-        <v>1.6760256850843647</v>
+        <v>1.0169287705880212</v>
       </c>
       <c r="W2" s="0">
-        <v>1.6760256850843647</v>
+        <v>1.0169287705880212</v>
       </c>
       <c r="X2" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="0">
         <v>0.7142857142857143</v>
@@ -627,32 +627,32 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E3" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0">
         <v>3</v>
       </c>
       <c r="G3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>3.5655271581278876</v>
+        <v>3.7838298667372485</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" s="0">
-        <v>7.1906250524148048</v>
+        <v>7.6100597438488498</v>
       </c>
       <c r="L3" s="0">
-        <v>0.63220857722397972</v>
+        <v>0.74183824597477588</v>
       </c>
       <c r="M3" s="0">
-        <v>0.63220857722397972</v>
+        <v>0.74183824597477588</v>
       </c>
       <c r="N3" s="0">
         <v>0.92000000000000004</v>
@@ -668,17 +668,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S3" s="0">
-        <v>5.9425452635464788</v>
+        <v>6.3063831112287474</v>
       </c>
       <c r="T3" s="0"/>
       <c r="U3" s="0">
-        <v>12.454527928960063</v>
+        <v>13.181010124980803</v>
       </c>
       <c r="V3" s="0">
-        <v>1.0415692842461872</v>
+        <v>1.2221851438321276</v>
       </c>
       <c r="W3" s="0">
-        <v>1.0415692842461872</v>
+        <v>1.2221851438321276</v>
       </c>
       <c r="X3" s="0">
         <v>0.77777777777777779</v>
@@ -763,32 +763,32 @@
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E4" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
         <v>5</v>
       </c>
       <c r="G4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>4.7948600832162906</v>
+        <v>4.2639682172863935</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0">
-        <v>9.7012983145808835</v>
+        <v>8.5854593391588789</v>
       </c>
       <c r="L4" s="0">
-        <v>0.72822590875951965</v>
+        <v>0.80377240705805653</v>
       </c>
       <c r="M4" s="0">
-        <v>0.72822590875951965</v>
+        <v>0.80377240705805653</v>
       </c>
       <c r="N4" s="0">
         <v>0.88</v>
@@ -804,17 +804,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S4" s="0">
-        <v>7.9914334720271505</v>
+        <v>7.1066136954773231</v>
       </c>
       <c r="T4" s="0"/>
       <c r="U4" s="0">
-        <v>16.803141580236407</v>
+        <v>14.870451781739895</v>
       </c>
       <c r="V4" s="0">
-        <v>1.1997586965471692</v>
+        <v>1.324222228038036</v>
       </c>
       <c r="W4" s="0">
-        <v>1.1997586965471692</v>
+        <v>1.324222228038036</v>
       </c>
       <c r="X4" s="0">
         <v>0.66666666666666674</v>
@@ -899,32 +899,32 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E5" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0">
         <v>2</v>
       </c>
       <c r="G5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>4.1482670346306545</v>
+        <v>4.1376104217820071</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" s="0">
-        <v>8.3917788069349424</v>
+        <v>8.3070194196897198</v>
       </c>
       <c r="L5" s="0">
-        <v>0.63541430735968729</v>
+        <v>0.85704726352396421</v>
       </c>
       <c r="M5" s="0">
-        <v>0.63541430735968729</v>
+        <v>0.85704726352396421</v>
       </c>
       <c r="N5" s="0">
         <v>0.88</v>
@@ -940,17 +940,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S5" s="0">
-        <v>6.9137783910510908</v>
+        <v>6.8960173696366791</v>
       </c>
       <c r="T5" s="0"/>
       <c r="U5" s="0">
-        <v>14.534987259491057</v>
+        <v>14.388179694363924</v>
       </c>
       <c r="V5" s="0">
-        <v>1.0468507533107117</v>
+        <v>1.4119930304544905</v>
       </c>
       <c r="W5" s="0">
-        <v>1.0468507533107117</v>
+        <v>1.4119930304544905</v>
       </c>
       <c r="X5" s="0">
         <v>0.66666666666666674</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E6" s="0">
         <v>10</v>
@@ -1050,17 +1050,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>5.9434643259846416</v>
+        <v>4.3466838173331785</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" s="0">
-        <v>12.083693249110862</v>
+        <v>8.8094398574635058</v>
       </c>
       <c r="L6" s="0">
-        <v>0.60807503106360294</v>
+        <v>0.59401052547176325</v>
       </c>
       <c r="M6" s="0">
-        <v>0.60807503106360294</v>
+        <v>0.59401052547176325</v>
       </c>
       <c r="N6" s="0">
         <v>0.88</v>
@@ -1076,17 +1076,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S6" s="0">
-        <v>9.905773876641069</v>
+        <v>7.2444730288886312</v>
       </c>
       <c r="T6" s="0"/>
       <c r="U6" s="0">
-        <v>20.929570650537059</v>
+        <v>15.258397419349121</v>
       </c>
       <c r="V6" s="0">
-        <v>1.0018090511424842</v>
+        <v>0.97863765241377154</v>
       </c>
       <c r="W6" s="0">
-        <v>1.0018090511424842</v>
+        <v>0.97863765241377154</v>
       </c>
       <c r="X6" s="0">
         <v>0.66666666666666674</v>
@@ -1171,71 +1171,71 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E7" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
         <v>5</v>
       </c>
       <c r="G7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.6299451440163355</v>
+        <v>6.354710569318236</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0">
-        <v>7.3402056173350472</v>
+        <v>10.795396832451964</v>
       </c>
       <c r="L7" s="0">
-        <v>0.56850832913643068</v>
+        <v>4.0413331820240179</v>
       </c>
       <c r="M7" s="0">
-        <v>0.56850832913643068</v>
+        <v>4.0413331820240179</v>
       </c>
       <c r="N7" s="0">
-        <v>0.92000000000000004</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="O7" s="0"/>
       <c r="P7" s="0">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="R7" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="S7" s="0">
-        <v>6.0499085733605593</v>
+        <v>10.591184282197061</v>
       </c>
       <c r="T7" s="0"/>
       <c r="U7" s="0">
-        <v>12.713609067226779</v>
+        <v>18.698175801674925</v>
       </c>
       <c r="V7" s="0">
-        <v>0.93662255590822774</v>
+        <v>6.6581325553731565</v>
       </c>
       <c r="W7" s="0">
-        <v>0.93662255590822774</v>
+        <v>6.6581325553731565</v>
       </c>
       <c r="X7" s="0">
-        <v>0.77777777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Y7" s="0"/>
       <c r="Z7" s="0">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1310,68 +1310,68 @@
         <v>2013</v>
       </c>
       <c r="E8" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>4.2039392978111945</v>
+        <v>4.863065242965499</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0">
-        <v>8.5096425971603456</v>
+        <v>9.8742422687624476</v>
       </c>
       <c r="L8" s="0">
-        <v>0.62169283766167804</v>
+        <v>0.57267271079917237</v>
       </c>
       <c r="M8" s="0">
-        <v>0.62169283766167804</v>
+        <v>0.57267271079917237</v>
       </c>
       <c r="N8" s="0">
-        <v>0.88</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="O8" s="0"/>
       <c r="P8" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.94736842105263164</v>
       </c>
       <c r="R8" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.94736842105263164</v>
       </c>
       <c r="S8" s="0">
-        <v>7.0065654963519908</v>
+        <v>8.1051087382758329</v>
       </c>
       <c r="T8" s="0"/>
       <c r="U8" s="0">
-        <v>14.739133332534093</v>
+        <v>17.102689295740738</v>
       </c>
       <c r="V8" s="0">
-        <v>1.0242445092845447</v>
+        <v>0.94348341193589458</v>
       </c>
       <c r="W8" s="0">
-        <v>1.0242445092845447</v>
+        <v>0.94348341193589458</v>
       </c>
       <c r="X8" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Y8" s="0"/>
       <c r="Z8" s="0">
         <v>0.5</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1443,32 +1443,32 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E9" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0">
         <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
       </c>
       <c r="I9" s="0">
-        <v>4.6129785741332734</v>
+        <v>5.6421609269419317</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" s="0">
-        <v>9.3473964370796221</v>
+        <v>11.464237624802649</v>
       </c>
       <c r="L9" s="0">
-        <v>0.63851646410555874</v>
+        <v>0.6188713083684424</v>
       </c>
       <c r="M9" s="0">
-        <v>0.63851646410555874</v>
+        <v>0.6188713083684424</v>
       </c>
       <c r="N9" s="0">
         <v>0.88</v>
@@ -1484,17 +1484,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S9" s="0">
-        <v>7.6882976235554557</v>
+        <v>9.4036015449032195</v>
       </c>
       <c r="T9" s="0"/>
       <c r="U9" s="0">
-        <v>16.190165547510205</v>
+        <v>19.856642036200938</v>
       </c>
       <c r="V9" s="0">
-        <v>1.0519615842893178</v>
+        <v>1.0195960145435534</v>
       </c>
       <c r="W9" s="0">
-        <v>1.0519615842893178</v>
+        <v>1.0195960145435534</v>
       </c>
       <c r="X9" s="0">
         <v>0.66666666666666674</v>
@@ -1565,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E10" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0">
         <v>3</v>
@@ -1594,56 +1594,56 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>3.9500588113524131</v>
+        <v>5.2549394415355906</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0">
-        <v>7.9999857083021553</v>
+        <v>10.672029505076191</v>
       </c>
       <c r="L10" s="0">
-        <v>0.56547545576306957</v>
+        <v>0.60725572571498054</v>
       </c>
       <c r="M10" s="0">
-        <v>0.56547545576306957</v>
+        <v>0.60725572571498054</v>
       </c>
       <c r="N10" s="0">
-        <v>0.88</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="O10" s="0"/>
       <c r="P10" s="0">
         <v>0.83333333333333337</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="R10" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="S10" s="0">
-        <v>6.5834313522540215</v>
+        <v>8.758232402559317</v>
       </c>
       <c r="T10" s="0"/>
       <c r="U10" s="0">
-        <v>13.856381706604225</v>
+        <v>18.484497322666105</v>
       </c>
       <c r="V10" s="0">
-        <v>0.931625869905371</v>
+        <v>1.0004592382543218</v>
       </c>
       <c r="W10" s="0">
-        <v>0.931625869905371</v>
+        <v>1.0004592382543218</v>
       </c>
       <c r="X10" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Y10" s="0"/>
       <c r="Z10" s="0">
         <v>0.5</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1715,32 +1715,32 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>5.0367724036217885</v>
+        <v>6.80288367685782</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0">
-        <v>10.228550923293692</v>
+        <v>8.2672606123872594</v>
       </c>
       <c r="L11" s="0">
-        <v>0.58432967464197216</v>
+        <v>6.2697900150461932</v>
       </c>
       <c r="M11" s="0">
-        <v>0.58432967464197216</v>
+        <v>6.2697900150461932</v>
       </c>
       <c r="N11" s="0">
         <v>0.88</v>
@@ -1756,17 +1756,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="S11" s="0">
-        <v>8.3946206727029811</v>
+        <v>11.338139461429702</v>
       </c>
       <c r="T11" s="0"/>
       <c r="U11" s="0">
-        <v>17.716369886950226</v>
+        <v>14.319315420067722</v>
       </c>
       <c r="V11" s="0">
-        <v>0.9626883641045948</v>
+        <v>10.329535114851739</v>
       </c>
       <c r="W11" s="0">
-        <v>0.9626883641045948</v>
+        <v>10.329535114851739</v>
       </c>
       <c r="X11" s="0">
         <v>0.66666666666666674</v>
@@ -1895,12 +1895,12 @@
     <col min="41" max="41" width="12" customWidth="true"/>
     <col min="42" max="42" width="13" customWidth="true"/>
     <col min="43" max="43" width="13" customWidth="true"/>
-    <col min="44" max="44" width="5" customWidth="true"/>
+    <col min="44" max="44" width="6" customWidth="true"/>
     <col min="45" max="45" width="24.07421875" customWidth="true"/>
     <col min="46" max="46" width="2.4609375" customWidth="true"/>
     <col min="47" max="47" width="13" customWidth="true"/>
     <col min="48" max="48" width="13" customWidth="true"/>
-    <col min="49" max="49" width="24.4609375" customWidth="true"/>
+    <col min="49" max="49" width="25.53515625" customWidth="true"/>
     <col min="50" max="50" width="19.765625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2067,84 +2067,84 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>5.3680371059085887</v>
+        <v>3.1605227845271315</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0">
-        <v>14.21518887284792</v>
+        <v>7.4166183931624588</v>
       </c>
       <c r="L2" s="0">
-        <v>2.2781648833702324</v>
+        <v>1.9621871101874979</v>
       </c>
       <c r="M2" s="0">
-        <v>2.2781648833702324</v>
+        <v>1.9621871101874979</v>
       </c>
       <c r="N2" s="0">
-        <v>0.67999999999999994</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0">
-        <v>1</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="R2" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="S2" s="0">
-        <v>7.9184818008903166</v>
+        <v>3.3118138673616104</v>
       </c>
       <c r="T2" s="0"/>
       <c r="U2" s="0">
-        <v>21.515776987689911</v>
+        <v>5.2035983659203096</v>
       </c>
       <c r="V2" s="0">
-        <v>3.5600654294421617</v>
+        <v>2.9923979488578527</v>
       </c>
       <c r="W2" s="0">
-        <v>3.5600654294421617</v>
+        <v>2.9923979488578527</v>
       </c>
       <c r="X2" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.1291816307091604</v>
+        <v>3.0738823093824443</v>
       </c>
       <c r="AD2" s="0"/>
       <c r="AE2" s="0">
-        <v>8.4577900011352654</v>
+        <v>8.2928320407096781</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.98561146506242414</v>
+        <v>0.98698359807284686</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.98561146506242414</v>
+        <v>0.98698359807284686</v>
       </c>
       <c r="AH2" s="0">
         <v>0.75</v>
@@ -2160,17 +2160,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AM2" s="0">
-        <v>3.1172935287935508</v>
+        <v>3.0704150237379451</v>
       </c>
       <c r="AN2" s="0"/>
       <c r="AO2" s="0">
-        <v>8.4706500922247727</v>
+        <v>8.3168615450876366</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.92491224080663348</v>
+        <v>0.94486593030878363</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0.92491224080663348</v>
+        <v>0.94486593030878363</v>
       </c>
       <c r="AR2" s="0">
         <v>0.75</v>
@@ -2203,84 +2203,84 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E3" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0">
         <v>3</v>
       </c>
       <c r="G3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>3.17722730684878</v>
+        <v>4.0374509988489358</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" s="0">
-        <v>7.4462896325603261</v>
+        <v>8.6804842649816436</v>
       </c>
       <c r="L3" s="0">
-        <v>1.9774598732707638</v>
+        <v>2.872066432022224</v>
       </c>
       <c r="M3" s="0">
-        <v>1.9774598732707638</v>
+        <v>2.872066432022224</v>
       </c>
       <c r="N3" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0">
         <v>0.66666666666666674</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="R3" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="S3" s="0">
-        <v>3.343396820816583</v>
+        <v>4.5085902963144679</v>
       </c>
       <c r="T3" s="0"/>
       <c r="U3" s="0">
-        <v>5.2866544056360061</v>
+        <v>4.2045959544169964</v>
       </c>
       <c r="V3" s="0">
-        <v>3.013635800581818</v>
+        <v>4.5451602144518652</v>
       </c>
       <c r="W3" s="0">
-        <v>3.013635800581818</v>
+        <v>4.5451602144518652</v>
       </c>
       <c r="X3" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0">
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AC3" s="0">
-        <v>3.0803169312187251</v>
+        <v>3.7567229778042543</v>
       </c>
       <c r="AD3" s="0"/>
       <c r="AE3" s="0">
-        <v>8.3180111365575122</v>
+        <v>10.218995988985565</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.97961434876377795</v>
+        <v>1.1003805337113841</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.97961434876377795</v>
+        <v>1.1003805337113841</v>
       </c>
       <c r="AH3" s="0">
         <v>0.75</v>
@@ -2296,17 +2296,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AM3" s="0">
-        <v>3.0793220458730621</v>
+        <v>3.7362254650711368</v>
       </c>
       <c r="AN3" s="0"/>
       <c r="AO3" s="0">
-        <v>8.3188739504455054</v>
+        <v>10.19538695003671</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.97498207267020964</v>
+        <v>1.0507909093215333</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0.97498207267020964</v>
+        <v>1.0507909093215333</v>
       </c>
       <c r="AR3" s="0">
         <v>0.75</v>
@@ -2339,65 +2339,65 @@
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E4" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
         <v>5</v>
       </c>
       <c r="G4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>6.0855176603414698</v>
+        <v>4.2970704199110932</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0">
-        <v>13.320407287308754</v>
+        <v>10.063551117444394</v>
       </c>
       <c r="L4" s="0">
-        <v>4.2294335477097196</v>
+        <v>2.6781538040701869</v>
       </c>
       <c r="M4" s="0">
-        <v>4.2294335477097196</v>
+        <v>2.6781538040701869</v>
       </c>
       <c r="N4" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0">
-        <v>1</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="0">
-        <v>8.194516381314747</v>
+        <v>5.1740087782302968</v>
       </c>
       <c r="T4" s="0"/>
       <c r="U4" s="0">
-        <v>15.259935740212727</v>
+        <v>12.547241678439413</v>
       </c>
       <c r="V4" s="0">
-        <v>6.8143713000292614</v>
+        <v>3.2307125335920559</v>
       </c>
       <c r="W4" s="0">
-        <v>6.8143713000292614</v>
+        <v>3.2307125335920559</v>
       </c>
       <c r="X4" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0.375</v>
@@ -2406,56 +2406,56 @@
         <v>0.375</v>
       </c>
       <c r="AC4" s="0">
-        <v>4.5012573528092172</v>
+        <v>3.7283200086061061</v>
       </c>
       <c r="AD4" s="0"/>
       <c r="AE4" s="0">
-        <v>12.338342814416841</v>
+        <v>8.5587583559267877</v>
       </c>
       <c r="AF4" s="0">
-        <v>1.1865820448233804</v>
+        <v>2.3284150371761005</v>
       </c>
       <c r="AG4" s="0">
-        <v>1.1865820448233804</v>
+        <v>2.3284150371761005</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AI4" s="0"/>
       <c r="AJ4" s="0">
         <v>1</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AM4" s="0">
-        <v>4.4636966084138701</v>
+        <v>3.6993934066015099</v>
       </c>
       <c r="AN4" s="0"/>
       <c r="AO4" s="0">
-        <v>12.13257634214065</v>
+        <v>8.5521672661340737</v>
       </c>
       <c r="AP4" s="0">
-        <v>1.3200265472359063</v>
+        <v>2.278612600011515</v>
       </c>
       <c r="AQ4" s="0">
-        <v>1.3200265472359063</v>
+        <v>2.278612600011515</v>
       </c>
       <c r="AR4" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AS4" s="0"/>
       <c r="AT4" s="0">
         <v>1</v>
       </c>
       <c r="AU4" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AV4" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AW4" s="0" t="s">
         <v>53</v>
@@ -2475,84 +2475,84 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E5" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0">
         <v>2</v>
       </c>
       <c r="G5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>3.8318126832102593</v>
+        <v>3.9700056772693033</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" s="0">
-        <v>9.5440803356438995</v>
+        <v>9.0268876389830393</v>
       </c>
       <c r="L5" s="0">
-        <v>2.0648718056246742</v>
+        <v>2.6074153485630536</v>
       </c>
       <c r="M5" s="0">
-        <v>2.0648718056246742</v>
+        <v>2.6074153485630536</v>
       </c>
       <c r="N5" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="O5" s="0"/>
       <c r="P5" s="0">
         <v>0.66666666666666674</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="R5" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="S5" s="0">
-        <v>4.7754682412068013</v>
+        <v>4.6595222712093571</v>
       </c>
       <c r="T5" s="0"/>
       <c r="U5" s="0">
-        <v>11.187244849520793</v>
+        <v>7.915817611933659</v>
       </c>
       <c r="V5" s="0">
-        <v>3.164084089073874</v>
+        <v>4.0733917332130138</v>
       </c>
       <c r="W5" s="0">
-        <v>3.164084089073874</v>
+        <v>4.0733917332130138</v>
       </c>
       <c r="X5" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Y5" s="0"/>
       <c r="Z5" s="0">
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AC5" s="0">
-        <v>3.1754613346409304</v>
+        <v>3.5236303129291362</v>
       </c>
       <c r="AD5" s="0"/>
       <c r="AE5" s="0">
-        <v>8.5972874186013968</v>
+        <v>9.5496388422157317</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.98235042804450834</v>
+        <v>1.0778392830625305</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.98235042804450834</v>
+        <v>1.0778392830625305</v>
       </c>
       <c r="AH5" s="0">
         <v>0.75</v>
@@ -2568,17 +2568,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AM5" s="0">
-        <v>3.1850314200354744</v>
+        <v>3.523058545464326</v>
       </c>
       <c r="AN5" s="0"/>
       <c r="AO5" s="0">
-        <v>8.6139775991409593</v>
+        <v>9.5183155473182222</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.99676556166169539</v>
+        <v>1.1146556969905175</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.99676556166169539</v>
+        <v>1.1146556969905175</v>
       </c>
       <c r="AR5" s="0">
         <v>0.75</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E6" s="0">
         <v>10</v>
@@ -2626,69 +2626,69 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>9.3517988835970059</v>
+        <v>4.1787318170128813</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" s="0">
-        <v>26.397949027721836</v>
+        <v>10.707235682117254</v>
       </c>
       <c r="L6" s="0">
-        <v>2.0872820558036129</v>
+        <v>2.0517210304088116</v>
       </c>
       <c r="M6" s="0">
-        <v>2.0872820558036129</v>
+        <v>2.0517210304088116</v>
       </c>
       <c r="N6" s="0">
-        <v>0.67999999999999994</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="O6" s="0"/>
       <c r="P6" s="0">
         <v>1</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="R6" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="S6" s="0">
-        <v>14.995641797113365</v>
+        <v>5.5128055426306197</v>
       </c>
       <c r="T6" s="0"/>
       <c r="U6" s="0">
-        <v>44.069723605913012</v>
+        <v>13.95269765030331</v>
       </c>
       <c r="V6" s="0">
-        <v>3.1953661266049327</v>
+        <v>3.1392963550163264</v>
       </c>
       <c r="W6" s="0">
-        <v>3.1953661266049327</v>
+        <v>3.1392963550163264</v>
       </c>
       <c r="X6" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Y6" s="0"/>
       <c r="Z6" s="0">
         <v>1</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AC6" s="0">
-        <v>3.186958321184393</v>
+        <v>3.1887436881031297</v>
       </c>
       <c r="AD6" s="0"/>
       <c r="AE6" s="0">
-        <v>8.625981118725484</v>
+        <v>8.6317658307600773</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.98894434821920796</v>
+        <v>0.98831090468703942</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.98894434821920796</v>
+        <v>0.98831090468703942</v>
       </c>
       <c r="AH6" s="0">
         <v>0.75</v>
@@ -2704,17 +2704,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AM6" s="0">
-        <v>3.188386662707007</v>
+        <v>3.1953300873662496</v>
       </c>
       <c r="AN6" s="0"/>
       <c r="AO6" s="0">
-        <v>8.6027350097759872</v>
+        <v>8.6457813284490399</v>
       </c>
       <c r="AP6" s="0">
-        <v>1.022561659963976</v>
+        <v>0.99509799649984121</v>
       </c>
       <c r="AQ6" s="0">
-        <v>1.022561659963976</v>
+        <v>0.99509799649984121</v>
       </c>
       <c r="AR6" s="0">
         <v>0.75</v>
@@ -2747,110 +2747,110 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E7" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
         <v>5</v>
       </c>
       <c r="G7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.2729140456382173</v>
+        <v>10.079147201987022</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0">
-        <v>7.740051161797358</v>
+        <v>19.102253094423606</v>
       </c>
       <c r="L7" s="0">
-        <v>2.0008405369161979</v>
+        <v>8.1045497551258237</v>
       </c>
       <c r="M7" s="0">
-        <v>2.0008405369161979</v>
+        <v>8.1045497551258237</v>
       </c>
       <c r="N7" s="0">
-        <v>0.67999999999999994</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="O7" s="0"/>
       <c r="P7" s="0">
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.68181818181818188</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="R7" s="0">
-        <v>0.68181818181818188</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="S7" s="0">
-        <v>3.5109290429241571</v>
+        <v>13.554293024331942</v>
       </c>
       <c r="T7" s="0"/>
       <c r="U7" s="0">
-        <v>5.9348439113194855</v>
+        <v>30.289182248177884</v>
       </c>
       <c r="V7" s="0">
-        <v>3.0764677888836469</v>
+        <v>9.5918922353839289</v>
       </c>
       <c r="W7" s="0">
-        <v>3.0764677888836469</v>
+        <v>9.5918922353839289</v>
       </c>
       <c r="X7" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Y7" s="0"/>
       <c r="Z7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="AC7" s="0">
-        <v>3.134596399940814</v>
+        <v>9.9159105015584945</v>
       </c>
       <c r="AD7" s="0"/>
       <c r="AE7" s="0">
-        <v>8.4876775029948881</v>
+        <v>9.3374958663757131</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.96842193647557862</v>
+        <v>9.9958092614909706</v>
       </c>
       <c r="AG7" s="0">
-        <v>0.96842193647557862</v>
+        <v>9.9958092614909706</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AI7" s="0"/>
       <c r="AJ7" s="0">
         <v>1</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AL7" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AM7" s="0">
-        <v>3.1275788824821778</v>
+        <v>3.5294869471114882</v>
       </c>
       <c r="AN7" s="0"/>
       <c r="AO7" s="0">
-        <v>8.5124693429785925</v>
+        <v>9.4902491817828914</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.90962025153650594</v>
+        <v>1.170677175601013</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.90962025153650594</v>
+        <v>1.170677175601013</v>
       </c>
       <c r="AR7" s="0">
         <v>0.75</v>
@@ -2886,62 +2886,62 @@
         <v>2013</v>
       </c>
       <c r="E8" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>3.9096469799060407</v>
+        <v>5.5981816953938592</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0">
-        <v>9.9026801940667824</v>
+        <v>14.771147952519499</v>
       </c>
       <c r="L8" s="0">
-        <v>1.9993665202363362</v>
+        <v>2.4208424703772455</v>
       </c>
       <c r="M8" s="0">
-        <v>1.9993665202363362</v>
+        <v>2.4208424703772455</v>
       </c>
       <c r="N8" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="O8" s="0"/>
       <c r="P8" s="0">
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="R8" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="S8" s="0">
-        <v>5.0100750205873545</v>
+        <v>8.0394545408494675</v>
       </c>
       <c r="T8" s="0"/>
       <c r="U8" s="0">
-        <v>12.272918159129617</v>
+        <v>22.276231578408876</v>
       </c>
       <c r="V8" s="0">
-        <v>3.0676364123402666</v>
+        <v>3.2685044457397776</v>
       </c>
       <c r="W8" s="0">
-        <v>3.0676364123402666</v>
+        <v>3.2685044457397776</v>
       </c>
       <c r="X8" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Y8" s="0"/>
       <c r="Z8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="0">
         <v>0.5</v>
@@ -2950,56 +2950,56 @@
         <v>0.5</v>
       </c>
       <c r="AC8" s="0">
-        <v>3.1368301395834934</v>
+        <v>3.8610689296859522</v>
       </c>
       <c r="AD8" s="0"/>
       <c r="AE8" s="0">
-        <v>8.4810424971825906</v>
+        <v>8.8792970332130672</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.98485276330874383</v>
+        <v>2.4030014099711519</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.98485276330874383</v>
+        <v>2.4030014099711519</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="0"/>
       <c r="AJ8" s="0">
         <v>1</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="0">
-        <v>3.112639468425372</v>
+        <v>3.211943868172269</v>
       </c>
       <c r="AN8" s="0"/>
       <c r="AO8" s="0">
-        <v>8.4638421002625641</v>
+        <v>8.9156057767678298</v>
       </c>
       <c r="AP8" s="0">
-        <v>0.9158581132326149</v>
+        <v>0.65950640975760999</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.9158581132326149</v>
+        <v>0.65950640975760999</v>
       </c>
       <c r="AR8" s="0">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AS8" s="0"/>
       <c r="AT8" s="0">
         <v>1</v>
       </c>
       <c r="AU8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AW8" s="0" t="s">
         <v>57</v>
@@ -3019,32 +3019,32 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E9" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0">
         <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
       </c>
       <c r="I9" s="0">
-        <v>4.9873819614283041</v>
+        <v>8.0467469131088478</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" s="0">
-        <v>12.505651984829969</v>
+        <v>22.489988107310779</v>
       </c>
       <c r="L9" s="0">
-        <v>2.6343489452067828</v>
+        <v>2.1463997540250004</v>
       </c>
       <c r="M9" s="0">
-        <v>2.6343489452067828</v>
+        <v>2.1463997540250004</v>
       </c>
       <c r="N9" s="0">
         <v>0.67999999999999994</v>
@@ -3060,17 +3060,17 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="S9" s="0">
-        <v>6.6836557198637125</v>
+        <v>12.692466321786327</v>
       </c>
       <c r="T9" s="0"/>
       <c r="U9" s="0">
-        <v>18.089870877189885</v>
+        <v>36.90183845610764</v>
       </c>
       <c r="V9" s="0">
-        <v>3.057733140776012</v>
+        <v>3.3193114972546747</v>
       </c>
       <c r="W9" s="0">
-        <v>3.057733140776012</v>
+        <v>3.3193114972546747</v>
       </c>
       <c r="X9" s="0">
         <v>0.55555555555555558</v>
@@ -3086,17 +3086,17 @@
         <v>0.5</v>
       </c>
       <c r="AC9" s="0">
-        <v>3.1185080070335802</v>
+        <v>3.2494007298320966</v>
       </c>
       <c r="AD9" s="0"/>
       <c r="AE9" s="0">
-        <v>8.4231107438431145</v>
+        <v>8.7990295558796312</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.98936797404166343</v>
+        <v>1.003274616943622</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.98936797404166343</v>
+        <v>1.003274616943622</v>
       </c>
       <c r="AH9" s="0">
         <v>0.75</v>
@@ -3112,17 +3112,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AM9" s="0">
-        <v>4.2131853919429023</v>
+        <v>3.2480040851898848</v>
       </c>
       <c r="AN9" s="0"/>
       <c r="AO9" s="0">
-        <v>8.4250680555469213</v>
+        <v>8.8447777041049918</v>
       </c>
       <c r="AP9" s="0">
-        <v>3.1853611016302002</v>
+        <v>0.93855144194571372</v>
       </c>
       <c r="AQ9" s="0">
-        <v>3.1853611016302002</v>
+        <v>0.93855144194571372</v>
       </c>
       <c r="AR9" s="0">
         <v>0.75</v>
@@ -3141,7 +3141,7 @@
         <v>58</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E10" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0">
         <v>3</v>
@@ -3170,114 +3170,114 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>3.6112593322473594</v>
+        <v>64.552954334025984</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0">
-        <v>8.7202900700254151</v>
+        <v>12.617132985846315</v>
       </c>
       <c r="L10" s="0">
-        <v>2.1094966267554698</v>
+        <v>68.65576904082738</v>
       </c>
       <c r="M10" s="0">
-        <v>2.1094966267554698</v>
+        <v>68.65576904082738</v>
       </c>
       <c r="N10" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O10" s="0"/>
       <c r="P10" s="0">
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.5</v>
       </c>
       <c r="R10" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.5</v>
       </c>
       <c r="S10" s="0">
-        <v>4.2150735491297544</v>
+        <v>7.9765361771507504</v>
       </c>
       <c r="T10" s="0"/>
       <c r="U10" s="0">
-        <v>8.9595132198636129</v>
+        <v>17.423449431680332</v>
       </c>
       <c r="V10" s="0">
-        <v>3.1549312212045306</v>
+        <v>5.7992410534723282</v>
       </c>
       <c r="W10" s="0">
-        <v>3.1549312212045306</v>
+        <v>5.7992410534723282</v>
       </c>
       <c r="X10" s="0">
         <v>0.55555555555555558</v>
       </c>
       <c r="Y10" s="0"/>
       <c r="Z10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AC10" s="0">
-        <v>3.2593122370062626</v>
+        <v>113.73751168402258</v>
       </c>
       <c r="AD10" s="0"/>
       <c r="AE10" s="0">
-        <v>8.5551837787894929</v>
+        <v>9.2808208765813411</v>
       </c>
       <c r="AF10" s="0">
-        <v>1.2980072956831759</v>
+        <v>121.53990460305748</v>
       </c>
       <c r="AG10" s="0">
-        <v>1.2980072956831759</v>
+        <v>121.53990460305748</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AI10" s="0"/>
       <c r="AJ10" s="0">
         <v>1</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM10" s="0">
-        <v>3.1847942208061353</v>
+        <v>3.786475178466886</v>
       </c>
       <c r="AN10" s="0"/>
       <c r="AO10" s="0">
-        <v>8.6409681222868713</v>
+        <v>9.3736816729652013</v>
       </c>
       <c r="AP10" s="0">
-        <v>0.96191652003868811</v>
+        <v>1.9578868386635262</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.96191652003868811</v>
+        <v>1.9578868386635262</v>
       </c>
       <c r="AR10" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AS10" s="0"/>
       <c r="AT10" s="0">
         <v>1</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AV10" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AW10" s="0" t="s">
         <v>59</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3291,65 +3291,59 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
-      <c r="I11" s="0">
-        <v>5.9420170148166402</v>
-      </c>
+      <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0">
-        <v>16.244517049110826</v>
-      </c>
-      <c r="L11" s="0">
-        <v>2.0342091676743097</v>
-      </c>
-      <c r="M11" s="0">
-        <v>2.0342091676743097</v>
-      </c>
+        <v>9.2437973051049784</v>
+      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
       <c r="N11" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O11" s="0"/>
       <c r="P11" s="0">
-        <v>1</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="R11" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="S11" s="0">
-        <v>8.9660461785061578</v>
+        <v>33.007333046210071</v>
       </c>
       <c r="T11" s="0"/>
       <c r="U11" s="0">
-        <v>25.426698675259665</v>
+        <v>11.157741227945955</v>
       </c>
       <c r="V11" s="0">
-        <v>3.102274390537779</v>
+        <v>34.786601451027593</v>
       </c>
       <c r="W11" s="0">
-        <v>3.102274390537779</v>
+        <v>34.786601451027593</v>
       </c>
       <c r="X11" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Y11" s="0"/>
       <c r="Z11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="0">
         <v>0.375</v>
@@ -3357,44 +3351,38 @@
       <c r="AB11" s="0">
         <v>0.375</v>
       </c>
-      <c r="AC11" s="0">
-        <v>3.1514680752584363</v>
-      </c>
+      <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
       <c r="AE11" s="0">
-        <v>8.5136463606992923</v>
-      </c>
-      <c r="AF11" s="0">
-        <v>0.99798610639746432</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>0.99798610639746432</v>
-      </c>
+        <v>8.1181404501414036</v>
+      </c>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
       <c r="AH11" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0">
         <v>1</v>
       </c>
       <c r="AK11" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AM11" s="0">
-        <v>3.1568435619763538</v>
+        <v>3.0117181013628134</v>
       </c>
       <c r="AN11" s="0"/>
       <c r="AO11" s="0">
-        <v>8.5237211708887362</v>
+        <v>8.1205893982870005</v>
       </c>
       <c r="AP11" s="0">
-        <v>1.0050918649752219</v>
+        <v>0.97244869134132606</v>
       </c>
       <c r="AQ11" s="0">
-        <v>1.0050918649752219</v>
+        <v>0.97244869134132606</v>
       </c>
       <c r="AR11" s="0">
         <v>0.75</v>
@@ -3476,7 +3464,7 @@
     <col min="46" max="46" width="19.69140625" customWidth="true"/>
     <col min="47" max="47" width="6" customWidth="true"/>
     <col min="48" max="48" width="6" customWidth="true"/>
-    <col min="49" max="49" width="24.4609375" customWidth="true"/>
+    <col min="49" max="49" width="25.53515625" customWidth="true"/>
     <col min="50" max="50" width="19.765625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3643,74 +3631,74 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>7.0146029586291281</v>
+        <v>3.4354509894960494</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0">
-        <v>7.0146029586291281</v>
+        <v>3.4354509894960494</v>
       </c>
       <c r="M2" s="0">
-        <v>7.0146029586291281</v>
+        <v>3.4354509894960494</v>
       </c>
       <c r="N2" s="0">
-        <v>0.43999999999999995</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
       <c r="Q2" s="0">
-        <v>0.43999999999999995</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="R2" s="0">
-        <v>0.43999999999999995</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="S2" s="0">
-        <v>10.955457042669467</v>
+        <v>4.098159345484599</v>
       </c>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0">
-        <v>10.955457042669467</v>
+        <v>4.098159345484599</v>
       </c>
       <c r="W2" s="0">
-        <v>10.955457042669467</v>
+        <v>4.098159345484599</v>
       </c>
       <c r="X2" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.0589572913801009</v>
+        <v>2.9947238368461178</v>
       </c>
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0">
-        <v>3.0589572913801009</v>
+        <v>2.9947238368461178</v>
       </c>
       <c r="AG2" s="0">
-        <v>3.0589572913801009</v>
+        <v>2.9947238368461178</v>
       </c>
       <c r="AH2" s="0">
         <v>0.5</v>
@@ -3724,15 +3712,15 @@
         <v>0.5</v>
       </c>
       <c r="AM2" s="0">
-        <v>3.0630919401874035</v>
+        <v>3.0032676052529688</v>
       </c>
       <c r="AN2" s="0"/>
       <c r="AO2" s="0"/>
       <c r="AP2" s="0">
-        <v>3.0630919401874035</v>
+        <v>3.0032676052529688</v>
       </c>
       <c r="AQ2" s="0">
-        <v>3.0630919401874035</v>
+        <v>3.0032676052529688</v>
       </c>
       <c r="AR2" s="0">
         <v>0.625</v>
@@ -3763,52 +3751,52 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E3" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0">
         <v>3</v>
       </c>
       <c r="G3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>3.451000094745206</v>
+        <v>5.2100630566394655</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0">
-        <v>3.451000094745206</v>
+        <v>5.2100630566394655</v>
       </c>
       <c r="M3" s="0">
-        <v>3.451000094745206</v>
+        <v>5.2100630566394655</v>
       </c>
       <c r="N3" s="0">
-        <v>0.52000000000000002</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" s="0">
-        <v>0.52000000000000002</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="R3" s="0">
-        <v>0.52000000000000002</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="S3" s="0">
-        <v>4.1262632463290778</v>
+        <v>5.8004655816365922</v>
       </c>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0">
-        <v>4.1262632463290778</v>
+        <v>5.8004655816365922</v>
       </c>
       <c r="W3" s="0">
-        <v>4.1262632463290778</v>
+        <v>5.8004655816365922</v>
       </c>
       <c r="X3" s="0">
         <v>0.44444444444444442</v>
@@ -3822,48 +3810,48 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="AC3" s="0">
-        <v>3.008565561801182</v>
+        <v>4.8714986960090974</v>
       </c>
       <c r="AD3" s="0"/>
       <c r="AE3" s="0"/>
       <c r="AF3" s="0">
-        <v>3.008565561801182</v>
+        <v>4.8714986960090974</v>
       </c>
       <c r="AG3" s="0">
-        <v>3.008565561801182</v>
+        <v>4.8714986960090974</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AI3" s="0"/>
       <c r="AJ3" s="0"/>
       <c r="AK3" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AM3" s="0">
-        <v>3.0018509296137066</v>
+        <v>4.8212851154863392</v>
       </c>
       <c r="AN3" s="0"/>
       <c r="AO3" s="0"/>
       <c r="AP3" s="0">
-        <v>3.0018509296137066</v>
+        <v>4.8212851154863392</v>
       </c>
       <c r="AQ3" s="0">
-        <v>3.0018509296137066</v>
+        <v>4.8212851154863392</v>
       </c>
       <c r="AR3" s="0">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AS3" s="0"/>
       <c r="AT3" s="0"/>
       <c r="AU3" s="0">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AV3" s="0">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AW3" s="0" t="s">
         <v>52</v>
@@ -3883,52 +3871,52 @@
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E4" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
         <v>5</v>
       </c>
       <c r="G4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>8.297786263637633</v>
+        <v>5.4668354325896775</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0">
-        <v>8.297786263637633</v>
+        <v>5.4668354325896775</v>
       </c>
       <c r="M4" s="0">
-        <v>8.297786263637633</v>
+        <v>5.4668354325896775</v>
       </c>
       <c r="N4" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
       <c r="Q4" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="R4" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="S4" s="0">
-        <v>9.8761898002860811</v>
+        <v>6.011018058357636</v>
       </c>
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
       <c r="V4" s="0">
-        <v>9.8761898002860811</v>
+        <v>6.011018058357636</v>
       </c>
       <c r="W4" s="0">
-        <v>9.8761898002860811</v>
+        <v>6.011018058357636</v>
       </c>
       <c r="X4" s="0">
         <v>0.44444444444444442</v>
@@ -3942,37 +3930,37 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="AC4" s="0">
-        <v>7.302449475123046</v>
+        <v>3.1157535085317223</v>
       </c>
       <c r="AD4" s="0"/>
       <c r="AE4" s="0"/>
       <c r="AF4" s="0">
-        <v>7.302449475123046</v>
+        <v>3.1157535085317223</v>
       </c>
       <c r="AG4" s="0">
-        <v>7.302449475123046</v>
+        <v>3.1157535085317223</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AI4" s="0"/>
       <c r="AJ4" s="0"/>
       <c r="AK4" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AM4" s="0">
-        <v>7.2186663457495959</v>
+        <v>6.5603242954037047</v>
       </c>
       <c r="AN4" s="0"/>
       <c r="AO4" s="0"/>
       <c r="AP4" s="0">
-        <v>7.2186663457495959</v>
+        <v>6.5603242954037047</v>
       </c>
       <c r="AQ4" s="0">
-        <v>7.2186663457495959</v>
+        <v>6.5603242954037047</v>
       </c>
       <c r="AR4" s="0">
         <v>0.5</v>
@@ -4003,30 +3991,30 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E5" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0">
         <v>2</v>
       </c>
       <c r="G5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>4.1677110921211282</v>
+        <v>4.5583800647330808</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0">
-        <v>4.1677110921211282</v>
+        <v>4.5583800647330808</v>
       </c>
       <c r="M5" s="0">
-        <v>4.1677110921211282</v>
+        <v>4.5583800647330808</v>
       </c>
       <c r="N5" s="0">
         <v>0.43999999999999995</v>
@@ -4040,15 +4028,15 @@
         <v>0.43999999999999995</v>
       </c>
       <c r="S5" s="0">
-        <v>5.5338582566955648</v>
+        <v>5.2944755038614257</v>
       </c>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
       <c r="V5" s="0">
-        <v>5.5338582566955648</v>
+        <v>5.2944755038614257</v>
       </c>
       <c r="W5" s="0">
-        <v>5.5338582566955648</v>
+        <v>5.2944755038614257</v>
       </c>
       <c r="X5" s="0">
         <v>0.33333333333333337</v>
@@ -4062,15 +4050,15 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="AC5" s="0">
-        <v>3.1469374334568663</v>
+        <v>4.1042833570821458</v>
       </c>
       <c r="AD5" s="0"/>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0">
-        <v>3.1469374334568663</v>
+        <v>4.1042833570821458</v>
       </c>
       <c r="AG5" s="0">
-        <v>3.1469374334568663</v>
+        <v>4.1042833570821458</v>
       </c>
       <c r="AH5" s="0">
         <v>0.5</v>
@@ -4084,15 +4072,15 @@
         <v>0.5</v>
       </c>
       <c r="AM5" s="0">
-        <v>3.1505433491149839</v>
+        <v>4.0685738842564501</v>
       </c>
       <c r="AN5" s="0"/>
       <c r="AO5" s="0"/>
       <c r="AP5" s="0">
-        <v>3.1505433491149839</v>
+        <v>4.0685738842564501</v>
       </c>
       <c r="AQ5" s="0">
-        <v>3.1505433491149839</v>
+        <v>4.0685738842564501</v>
       </c>
       <c r="AR5" s="0">
         <v>0.5</v>
@@ -4123,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E6" s="0">
         <v>10</v>
@@ -4138,15 +4126,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>18.509037382707504</v>
+        <v>4.6790820412674705</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0">
-        <v>18.509037382707504</v>
+        <v>4.6790820412674705</v>
       </c>
       <c r="M6" s="0">
-        <v>18.509037382707504</v>
+        <v>4.6790820412674705</v>
       </c>
       <c r="N6" s="0">
         <v>0.35999999999999999</v>
@@ -4160,15 +4148,15 @@
         <v>0.35999999999999999</v>
       </c>
       <c r="S6" s="0">
-        <v>30.554476107226517</v>
+        <v>6.5782870349884259</v>
       </c>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
       <c r="V6" s="0">
-        <v>30.554476107226517</v>
+        <v>6.5782870349884259</v>
       </c>
       <c r="W6" s="0">
-        <v>30.554476107226517</v>
+        <v>6.5782870349884259</v>
       </c>
       <c r="X6" s="0">
         <v>0.22222222222222221</v>
@@ -4182,15 +4170,15 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="AC6" s="0">
-        <v>3.1888068267013945</v>
+        <v>3.1389088507905245</v>
       </c>
       <c r="AD6" s="0"/>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0">
-        <v>3.1888068267013945</v>
+        <v>3.1389088507905245</v>
       </c>
       <c r="AG6" s="0">
-        <v>3.1888068267013945</v>
+        <v>3.1389088507905245</v>
       </c>
       <c r="AH6" s="0">
         <v>0.375</v>
@@ -4204,15 +4192,15 @@
         <v>0.375</v>
       </c>
       <c r="AM6" s="0">
-        <v>3.1835439637645009</v>
+        <v>3.1436142754390581</v>
       </c>
       <c r="AN6" s="0"/>
       <c r="AO6" s="0"/>
       <c r="AP6" s="0">
-        <v>3.1835439637645009</v>
+        <v>3.1436142754390581</v>
       </c>
       <c r="AQ6" s="0">
-        <v>3.1835439637645009</v>
+        <v>3.1436142754390581</v>
       </c>
       <c r="AR6" s="0">
         <v>0.5</v>
@@ -4243,30 +4231,30 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E7" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
         <v>5</v>
       </c>
       <c r="G7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.5762075182054933</v>
+        <v>12.516002090634657</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0">
-        <v>3.5762075182054933</v>
+        <v>12.516002090634657</v>
       </c>
       <c r="M7" s="0">
-        <v>3.5762075182054933</v>
+        <v>12.516002090634657</v>
       </c>
       <c r="N7" s="0">
         <v>0.52000000000000002</v>
@@ -4280,59 +4268,59 @@
         <v>0.52000000000000002</v>
       </c>
       <c r="S7" s="0">
-        <v>4.3053911910582201</v>
+        <v>19.272626540679639</v>
       </c>
       <c r="T7" s="0"/>
       <c r="U7" s="0"/>
       <c r="V7" s="0">
-        <v>4.3053911910582201</v>
+        <v>19.272626540679639</v>
       </c>
       <c r="W7" s="0">
-        <v>4.3053911910582201</v>
+        <v>19.272626540679639</v>
       </c>
       <c r="X7" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Y7" s="0"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AC7" s="0">
-        <v>3.0858744215375884</v>
+        <v>7.4537673377286424</v>
       </c>
       <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0">
-        <v>3.0858744215375884</v>
+        <v>7.4537673377286424</v>
       </c>
       <c r="AG7" s="0">
-        <v>3.0858744215375884</v>
+        <v>7.4537673377286424</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI7" s="0"/>
       <c r="AJ7" s="0"/>
       <c r="AK7" s="0">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AL7" s="0">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AM7" s="0">
-        <v>3.0968330192989533</v>
+        <v>4.0137470668125603</v>
       </c>
       <c r="AN7" s="0"/>
       <c r="AO7" s="0"/>
       <c r="AP7" s="0">
-        <v>3.0968330192989533</v>
+        <v>4.0137470668125603</v>
       </c>
       <c r="AQ7" s="0">
-        <v>3.0968330192989533</v>
+        <v>4.0137470668125603</v>
       </c>
       <c r="AR7" s="0">
         <v>0.625</v>
@@ -4366,49 +4354,49 @@
         <v>2013</v>
       </c>
       <c r="E8" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>4.2795223221657395</v>
+        <v>7.3878298266805747</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0">
-        <v>4.2795223221657395</v>
+        <v>7.3878298266805747</v>
       </c>
       <c r="M8" s="0">
-        <v>4.2795223221657395</v>
+        <v>7.3878298266805747</v>
       </c>
       <c r="N8" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
       <c r="Q8" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R8" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S8" s="0">
-        <v>5.8267423697319316</v>
+        <v>11.480077773137721</v>
       </c>
       <c r="T8" s="0"/>
       <c r="U8" s="0"/>
       <c r="V8" s="0">
-        <v>5.8267423697319316</v>
+        <v>11.480077773137721</v>
       </c>
       <c r="W8" s="0">
-        <v>5.8267423697319316</v>
+        <v>11.480077773137721</v>
       </c>
       <c r="X8" s="0">
         <v>0.33333333333333337</v>
@@ -4422,48 +4410,48 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="AC8" s="0">
-        <v>3.0943953995403009</v>
+        <v>3.3498690109420051</v>
       </c>
       <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0">
-        <v>3.0943953995403009</v>
+        <v>3.3498690109420051</v>
       </c>
       <c r="AG8" s="0">
-        <v>3.0943953995403009</v>
+        <v>3.3498690109420051</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AI8" s="0"/>
       <c r="AJ8" s="0"/>
       <c r="AK8" s="0">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AM8" s="0">
-        <v>3.076060381178293</v>
+        <v>3.3278763588887475</v>
       </c>
       <c r="AN8" s="0"/>
       <c r="AO8" s="0"/>
       <c r="AP8" s="0">
-        <v>3.076060381178293</v>
+        <v>3.3278763588887475</v>
       </c>
       <c r="AQ8" s="0">
-        <v>3.076060381178293</v>
+        <v>3.3278763588887475</v>
       </c>
       <c r="AR8" s="0">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AS8" s="0"/>
       <c r="AT8" s="0"/>
       <c r="AU8" s="0">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AW8" s="0" t="s">
         <v>57</v>
@@ -4483,52 +4471,52 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E9" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0">
         <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
       </c>
       <c r="I9" s="0">
-        <v>7.3433424107740546</v>
+        <v>14.315329172232998</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0">
-        <v>7.3433424107740546</v>
+        <v>14.315329172232998</v>
       </c>
       <c r="M9" s="0">
-        <v>7.3433424107740546</v>
+        <v>14.315329172232998</v>
       </c>
       <c r="N9" s="0">
-        <v>0.31999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
       <c r="Q9" s="0">
-        <v>0.31999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="R9" s="0">
-        <v>0.31999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="S9" s="0">
-        <v>8.5876713925004022</v>
+        <v>23.458563462313979</v>
       </c>
       <c r="T9" s="0"/>
       <c r="U9" s="0"/>
       <c r="V9" s="0">
-        <v>8.5876713925004022</v>
+        <v>23.458563462313979</v>
       </c>
       <c r="W9" s="0">
-        <v>8.5876713925004022</v>
+        <v>23.458563462313979</v>
       </c>
       <c r="X9" s="0">
         <v>0.22222222222222221</v>
@@ -4542,15 +4530,15 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="AC9" s="0">
-        <v>3.0548865449388884</v>
+        <v>3.2475283042069711</v>
       </c>
       <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0">
-        <v>3.0548865449388884</v>
+        <v>3.2475283042069711</v>
       </c>
       <c r="AG9" s="0">
-        <v>3.0548865449388884</v>
+        <v>3.2475283042069711</v>
       </c>
       <c r="AH9" s="0">
         <v>0.375</v>
@@ -4564,32 +4552,32 @@
         <v>0.375</v>
       </c>
       <c r="AM9" s="0">
-        <v>8.7301588625086364</v>
+        <v>3.2807566696364345</v>
       </c>
       <c r="AN9" s="0"/>
       <c r="AO9" s="0"/>
       <c r="AP9" s="0">
-        <v>8.7301588625086364</v>
+        <v>3.2807566696364345</v>
       </c>
       <c r="AQ9" s="0">
-        <v>8.7301588625086364</v>
+        <v>3.2807566696364345</v>
       </c>
       <c r="AR9" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AS9" s="0"/>
       <c r="AT9" s="0"/>
       <c r="AU9" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AV9" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AW9" s="0" t="s">
         <v>58</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -4603,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E10" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0">
         <v>3</v>
@@ -4618,98 +4606,98 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>3.8964573936773532</v>
+        <v>15.917749648000227</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0">
-        <v>3.8964573936773532</v>
+        <v>15.917749648000227</v>
       </c>
       <c r="M10" s="0">
-        <v>3.8964573936773532</v>
+        <v>15.917749648000227</v>
       </c>
       <c r="N10" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="R10" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="S10" s="0">
-        <v>4.9439063846091269</v>
+        <v>13.115460119672772</v>
       </c>
       <c r="T10" s="0"/>
       <c r="U10" s="0"/>
       <c r="V10" s="0">
-        <v>4.9439063846091269</v>
+        <v>13.115460119672772</v>
       </c>
       <c r="W10" s="0">
-        <v>4.9439063846091269</v>
+        <v>13.115460119672772</v>
       </c>
       <c r="X10" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Y10" s="0"/>
       <c r="Z10" s="0"/>
       <c r="AA10" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AC10" s="0">
-        <v>3.1496206668521691</v>
+        <v>24.14610330150121</v>
       </c>
       <c r="AD10" s="0"/>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0">
-        <v>3.1496206668521691</v>
+        <v>24.14610330150121</v>
       </c>
       <c r="AG10" s="0">
-        <v>3.1496206668521691</v>
+        <v>24.14610330150121</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AI10" s="0"/>
       <c r="AJ10" s="0"/>
       <c r="AK10" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AM10" s="0">
-        <v>3.1665977345580316</v>
+        <v>3.9044327673748085</v>
       </c>
       <c r="AN10" s="0"/>
       <c r="AO10" s="0"/>
       <c r="AP10" s="0">
-        <v>3.1665977345580316</v>
+        <v>3.9044327673748085</v>
       </c>
       <c r="AQ10" s="0">
-        <v>3.1665977345580316</v>
+        <v>3.9044327673748085</v>
       </c>
       <c r="AR10" s="0">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AS10" s="0"/>
       <c r="AT10" s="0"/>
       <c r="AU10" s="0">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AV10" s="0">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AW10" s="0" t="s">
         <v>59</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -4723,107 +4711,95 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
-      <c r="I11" s="0">
-        <v>8.5198729594959524</v>
-      </c>
+      <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="0">
-        <v>8.5198729594959524</v>
-      </c>
-      <c r="M11" s="0">
-        <v>8.5198729594959524</v>
-      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
       <c r="N11" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="R11" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="S11" s="0">
-        <v>13.580063821888762</v>
+        <v>90.989694567036253</v>
       </c>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
       <c r="V11" s="0">
-        <v>13.580063821888762</v>
+        <v>90.989694567036253</v>
       </c>
       <c r="W11" s="0">
-        <v>13.580063821888762</v>
+        <v>90.989694567036253</v>
       </c>
       <c r="X11" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Y11" s="0"/>
       <c r="Z11" s="0"/>
       <c r="AA11" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>3.1094079698914579</v>
-      </c>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
       <c r="AE11" s="0"/>
-      <c r="AF11" s="0">
-        <v>3.1094079698914579</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>3.1094079698914579</v>
-      </c>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
       <c r="AH11" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0"/>
       <c r="AK11" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AM11" s="0">
-        <v>3.1143887262152581</v>
+        <v>2.857595105361026</v>
       </c>
       <c r="AN11" s="0"/>
       <c r="AO11" s="0"/>
       <c r="AP11" s="0">
-        <v>3.1143887262152581</v>
+        <v>2.857595105361026</v>
       </c>
       <c r="AQ11" s="0">
-        <v>3.1143887262152581</v>
+        <v>2.857595105361026</v>
       </c>
       <c r="AR11" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AS11" s="0"/>
       <c r="AT11" s="0"/>
       <c r="AU11" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AV11" s="0">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AW11" s="0" t="s">
         <v>60</v>
